--- a/docs/performance_graph.xlsx
+++ b/docs/performance_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\MessagePipe\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E23DA5-279E-48B2-8514-AFD21113C762}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC37FE1-D313-48D7-AD12-C6C9D7169B07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="23535" xr2:uid="{3C1B77C6-FEA0-4CCF-9CE1-020DBF25E9B2}"/>
   </bookViews>
@@ -1058,13 +1058,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1394,7 +1394,7 @@
   <dimension ref="E7:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
